--- a/SeleniumTesting/src/test/resources/excelSheets/test.xlsx
+++ b/SeleniumTesting/src/test/resources/excelSheets/test.xlsx
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Ampara</t>
   </si>
   <si>
-    <t xml:space="preserve">October</t>
+    <t xml:space="preserve">November</t>
   </si>
   <si>
     <t xml:space="preserve">Kankesanturai</t>
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -80,6 +80,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,12 +129,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -157,7 +166,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -200,39 +209,39 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
